--- a/debug-util/green_board_V3/Wolf Creek  green board  Flash image V05.xlsx
+++ b/debug-util/green_board_V3/Wolf Creek  green board  Flash image V05.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-192" windowWidth="20736" windowHeight="5256" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="-195" windowWidth="20730" windowHeight="5250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="Program Hierarchy" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="260">
   <si>
     <t>Board Name</t>
   </si>
@@ -784,6 +785,36 @@
 Plxeep -p 8796,AB -d 1 -l U187.bin
 Plxeep -p 8796,AB -d 7 -l U112.bin</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chipset</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>U1000</t>
+  </si>
+  <si>
+    <t>U1001</t>
+  </si>
+  <si>
+    <t>U1002</t>
+  </si>
+  <si>
+    <t>U1003</t>
+  </si>
+  <si>
+    <t>U1004</t>
+  </si>
+  <si>
+    <t>U1005</t>
+  </si>
+  <si>
+    <t>U1006</t>
+  </si>
+  <si>
+    <t>U1007</t>
   </si>
 </sst>
 </file>
@@ -1238,27 +1269,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="14.44140625" style="8"/>
+    <col min="1" max="1" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
@@ -4256,15 +4287,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="74.44140625" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -4308,7 +4339,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="92.4">
+    <row r="6" spans="2:6" ht="89.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>189</v>
@@ -4344,7 +4375,7 @@
       <c r="D9" s="1"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="2:6" ht="66">
+    <row r="10" spans="2:6" ht="63.75">
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>208</v>
@@ -4377,7 +4408,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="39.6">
+    <row r="14" spans="2:6" ht="38.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>192</v>
@@ -4440,7 +4471,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="39.6">
+    <row r="23" spans="2:4" ht="38.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
         <v>202</v>
@@ -4466,7 +4497,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="105.6">
+    <row r="27" spans="2:4" ht="102">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>197</v>
@@ -4509,4 +4540,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>